--- a/data/trans_camb/P16A_n_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R3-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.1956912897398242</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.0681236376113795</v>
+        <v>0.06812363761137946</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9671031375803628</v>
+        <v>-1.142466496003861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9653319265638498</v>
+        <v>-1.072736016233254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9633136012300616</v>
+        <v>-0.9619567575270681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3148494194969838</v>
+        <v>-0.341675878008155</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.008620764246503</v>
+        <v>-1.00711743378713</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3981537276767639</v>
+        <v>-0.3960703603198445</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.3743796963142753</v>
+        <v>-0.2949880046501657</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.683637644597703</v>
+        <v>-0.7140608174625406</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2950406231089236</v>
+        <v>-0.2937184806880705</v>
       </c>
     </row>
     <row r="6">
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.228008667653292</v>
+        <v>1.374582696516081</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.953769370641132</v>
+        <v>3.05915769881373</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4905551045878612</v>
+        <v>0.4790075788199456</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.333316288413299</v>
+        <v>1.109973548841768</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3481178835396882</v>
+        <v>0.348117883539688</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         <v>0.1312042065803749</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2659870435261459</v>
+        <v>0.265987043526146</v>
       </c>
     </row>
     <row r="11">
@@ -853,31 +853,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.119797819772313</v>
+        <v>-0.1202601572334168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2403634218256655</v>
+        <v>-0.2419354558418627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1205687141524579</v>
+        <v>-0.118970875825097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.307241966980971</v>
+        <v>-0.4165534666545989</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4122379548576418</v>
+        <v>-0.4146403171536647</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.4367895040377003</v>
+        <v>-0.4477914101120499</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.07357816868537966</v>
+        <v>-0.120500441104604</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.201489942708887</v>
+        <v>-0.1867498518012156</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.1544992937786716</v>
+        <v>-0.1344483949653442</v>
       </c>
     </row>
     <row r="12">
@@ -888,31 +888,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.695518683821154</v>
+        <v>1.660205379049967</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6486598658300325</v>
+        <v>0.6520927138676257</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.334975067440359</v>
+        <v>1.734215662053489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.173871031461841</v>
+        <v>1.205597901475598</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.01967552929324</v>
+        <v>1.061587845124774</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.102150353037918</v>
+        <v>0.9566547377320368</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.118880745524754</v>
+        <v>1.109798013611575</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.537089214344726</v>
+        <v>0.582223902210886</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8612125681703747</v>
+        <v>0.8562236694852837</v>
       </c>
     </row>
     <row r="13">
@@ -964,11 +964,9 @@
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.6576646001403122</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.73632435918434</v>
+      </c>
+      <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
@@ -984,12 +982,10 @@
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+      <c r="I15" s="6" t="n">
+        <v>22.96028668262914</v>
+      </c>
+      <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1010,7 +1006,7 @@
         <v>-0.41769459825405</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6218797934963183</v>
+        <v>0.6218797934963182</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6590553498016238</v>
@@ -1028,7 +1024,7 @@
         <v>-0.5167794387383746</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7349698347695315</v>
+        <v>0.7349698347695314</v>
       </c>
     </row>
     <row r="17">
@@ -1039,31 +1035,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.433167037747937</v>
+        <v>-0.415348070616922</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.101616883898252</v>
+        <v>-1.13973735659095</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2044639692200824</v>
+        <v>-0.2019092838105197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4663056764171928</v>
+        <v>-0.4877284348998045</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.575092241842937</v>
+        <v>-1.496143571720993</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.1742485997906247</v>
+        <v>-0.2498449708244501</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.170692643506678</v>
+        <v>-0.1836417633667868</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.032807850836241</v>
+        <v>-1.071707569873293</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05175693633963105</v>
+        <v>0.02659607074643035</v>
       </c>
     </row>
     <row r="18">
@@ -1074,31 +1070,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.352197013647206</v>
+        <v>1.33081928248197</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>-0.1363148148623539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.913250061399502</v>
+        <v>1.7802893135817</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.947962839529119</v>
+        <v>1.73239785988307</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1292516446068377</v>
+        <v>0.00543647099880693</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.016546184185703</v>
+        <v>2.028131366471946</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.226126354218357</v>
+        <v>1.311098645120512</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.09905742625998187</v>
+        <v>-0.1344445759962688</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.549966341268513</v>
+        <v>1.520216702089631</v>
       </c>
     </row>
     <row r="19">
@@ -1143,26 +1139,28 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr"/>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-0.7311481350864653</v>
+      </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3937891216569567</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.3695656094552283</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.1853887614300433</v>
+        <v>-0.3339307115799821</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2246037425571394</v>
+        <v>-0.2666763330011787</v>
       </c>
       <c r="J20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.001335127265006098</v>
+        <v>-0.02033938363407911</v>
       </c>
     </row>
     <row r="21">
@@ -1174,24 +1172,24 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>10.08011309417706</v>
+      </c>
       <c r="F21" s="6" t="n">
-        <v>4.608139639984502</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.9285594542181941</v>
-      </c>
+        <v>4.313632540215515</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>5.560922130773603</v>
+        <v>5.375238390084904</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.356473021754047</v>
+        <v>3.915360536787649</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.04052753330733168</v>
+        <v>0.03994137005398103</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.059352249740839</v>
+        <v>4.106933870113854</v>
       </c>
     </row>
     <row r="22">
@@ -1212,7 +1210,7 @@
         <v>-0.7600391841378481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.401523520397047</v>
+        <v>2.401523520397046</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6457943218692672</v>
@@ -1221,7 +1219,7 @@
         <v>0.8342836348607382</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.523562479175537</v>
+        <v>3.523562479175536</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.3675473611878784</v>
@@ -1241,31 +1239,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.236841351572288</v>
+        <v>-1.383295607065825</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.216054540001004</v>
+        <v>-2.211070761537996</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6886307352654222</v>
+        <v>0.930387505324754</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.157431060626171</v>
+        <v>-1.213143157158326</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9947973465165438</v>
+        <v>-1.020872681868225</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.703188908409153</v>
+        <v>1.519674891198415</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.6992550502199764</v>
+        <v>-0.6418683815826024</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.01035344805909</v>
+        <v>-0.922769152409739</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.766715767023041</v>
+        <v>1.772780544377128</v>
       </c>
     </row>
     <row r="24">
@@ -1276,31 +1274,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.440648052665879</v>
+        <v>1.445706574446891</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>-0.000979470476088393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.028623826217403</v>
+        <v>4.342635615101184</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.553534709760749</v>
+        <v>2.40571854685297</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.636559993908115</v>
+        <v>2.493539356183757</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.156671830967065</v>
+        <v>5.249816867920326</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.481412155044257</v>
+        <v>1.50244596482996</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.068469109353903</v>
+        <v>1.057905747816427</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.174753155144653</v>
+        <v>4.190470345920851</v>
       </c>
     </row>
     <row r="25">
@@ -1317,7 +1315,7 @@
         <v>-0.8192144989948553</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>2.588501920224166</v>
+        <v>2.588501920224165</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3269028045011027</v>
@@ -1326,7 +1324,7 @@
         <v>0.4223165963985665</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.783636704861771</v>
+        <v>1.78363670486177</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2535062653324047</v>
@@ -1346,29 +1344,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8487999998611323</v>
+        <v>-0.8877292368874385</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>0.1041039023422043</v>
+        <v>0.3007409408232897</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4227187555273877</v>
+        <v>-0.4418716295743216</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3774304910419916</v>
+        <v>-0.3818231527013983</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4233674687112965</v>
+        <v>0.4266875606970645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3802801596939999</v>
+        <v>-0.3433859951587778</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4930898283427116</v>
+        <v>-0.481165660222376</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7495879128521548</v>
+        <v>0.8206752268220354</v>
       </c>
     </row>
     <row r="27">
@@ -1379,29 +1377,29 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.713823871195923</v>
+        <v>4.328437372902891</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>14.09830832376654</v>
+        <v>17.13366095050082</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.374259692374263</v>
+        <v>2.244828641340553</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.424832925614816</v>
+        <v>2.291993184274084</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.518027791476827</v>
+        <v>5.019926810197277</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.573651765626058</v>
+        <v>1.648345730642045</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.298698758857679</v>
+        <v>1.243012848485768</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.631981139169301</v>
+        <v>4.817921506547932</v>
       </c>
     </row>
     <row r="28">
@@ -1431,7 +1429,7 @@
         <v>1.635322018424067</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.231216672417031</v>
+        <v>6.231216672417035</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.5027797220537971</v>
@@ -1451,31 +1449,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.491266397818704</v>
+        <v>-2.711608660327812</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.469000887298384</v>
+        <v>-1.327033683241599</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.824000806457655</v>
+        <v>1.670200917212761</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.433436556148456</v>
+        <v>-1.186240431882426</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.340743761466575</v>
+        <v>-1.298757102036585</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.1343338517977</v>
+        <v>2.869986725318654</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.312949439307792</v>
+        <v>-1.226138105448876</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8732624715778187</v>
+        <v>-0.6899146838127358</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.34731391849136</v>
+        <v>3.135339019137637</v>
       </c>
     </row>
     <row r="30">
@@ -1486,31 +1484,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8087314736065332</v>
+        <v>0.7754726083139427</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.805238297968134</v>
+        <v>2.654737961020321</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.550346964162371</v>
+        <v>6.125392760992378</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.795790962341759</v>
+        <v>4.946936577717774</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.943057717102163</v>
+        <v>4.818580182847605</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.028978246651546</v>
+        <v>8.884840203720797</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.271556271501803</v>
+        <v>2.472762080229148</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.101988142147872</v>
+        <v>3.168024520863522</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.008618010370069</v>
+        <v>6.735566990225525</v>
       </c>
     </row>
     <row r="31">
@@ -1536,7 +1534,7 @@
         <v>0.3327858941371107</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.268044451508533</v>
+        <v>1.268044451508534</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1478659587306695</v>
@@ -1556,31 +1554,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8877951121626007</v>
+        <v>-0.9091458500372142</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6057633907693755</v>
+        <v>-0.5218462442340634</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3588266892390478</v>
+        <v>0.363017013565708</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2424993235784096</v>
+        <v>-0.2010505159866354</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2379820502608108</v>
+        <v>-0.205002025359223</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4110260078573061</v>
+        <v>0.3875952135346755</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3066939578637863</v>
+        <v>-0.2933673869310965</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2229334711420186</v>
+        <v>-0.1926663778373422</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6796155001117571</v>
+        <v>0.6680880459153036</v>
       </c>
     </row>
     <row r="33">
@@ -1591,31 +1589,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.177933730724993</v>
+        <v>1.248583989205021</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.022656233562616</v>
+        <v>2.828148012604188</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>7.53529425391738</v>
+        <v>6.693167386529801</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.322673701689171</v>
+        <v>1.513053281681023</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.453996079903809</v>
+        <v>1.418695222508936</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.810172535974451</v>
+        <v>2.711359886428741</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9059926941401364</v>
+        <v>0.9287059324030117</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.215464187852452</v>
+        <v>1.240809330802259</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.97063930303964</v>
+        <v>2.765983925370039</v>
       </c>
     </row>
     <row r="34">
@@ -1654,7 +1652,7 @@
         <v>3.147504851721367</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.958453769710411</v>
+        <v>8.958453769710415</v>
       </c>
     </row>
     <row r="35">
@@ -1665,31 +1663,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.308096892479603</v>
+        <v>-2.39452675073187</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.294220608932489</v>
+        <v>-1.185584375702292</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.625304591480058</v>
+        <v>2.899473979587483</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.566699201966837</v>
+        <v>1.718848532331756</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.09300634360178611</v>
+        <v>-0.07405158001000625</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>8.25524559033958</v>
+        <v>7.466819743187084</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.9346236459125317</v>
+        <v>0.6873287592381024</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.2075799555004131</v>
+        <v>0.3552278131474652</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>6.426242916982358</v>
+        <v>6.063463599461256</v>
       </c>
     </row>
     <row r="36">
@@ -1700,31 +1698,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.450802445121107</v>
+        <v>4.544633822919047</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.412570618089489</v>
+        <v>5.212783750280599</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.122479421848986</v>
+        <v>8.972011968215979</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.99317239719705</v>
+        <v>10.56755749007957</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.361695864346666</v>
+        <v>8.374578868615504</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.46501199464073</v>
+        <v>15.27534240562278</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.489380823632425</v>
+        <v>6.566065238639812</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.725142019919066</v>
+        <v>5.879713657801034</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.46169695406167</v>
+        <v>11.42335164460297</v>
       </c>
     </row>
     <row r="37">
@@ -1770,31 +1768,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4659001804885051</v>
+        <v>-0.4827440199342067</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2928648967117759</v>
+        <v>-0.2323881277876479</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3748043266748114</v>
+        <v>0.5068787459639614</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1372016981536726</v>
+        <v>0.1907618130938415</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.03625951449900283</v>
+        <v>-0.05525656255862548</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8700234296851606</v>
+        <v>0.7345451209499485</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1239435359808967</v>
+        <v>0.08804841691186341</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.02627404322084435</v>
+        <v>0.05211718815453272</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.9237522727743189</v>
+        <v>0.7870208125939452</v>
       </c>
     </row>
     <row r="39">
@@ -1805,31 +1803,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.588062190875088</v>
+        <v>1.71522322182482</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.054121027339172</v>
+        <v>2.126412591741004</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.658749573000754</v>
+        <v>3.889271903103578</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.071081633133212</v>
+        <v>2.136005137102886</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.566846902085983</v>
+        <v>1.594575286230672</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.096145891576452</v>
+        <v>2.974728958030519</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.422994548150917</v>
+        <v>1.47090262407159</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.24869543780439</v>
+        <v>1.340522036170172</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.753002735281968</v>
+        <v>2.678344746604698</v>
       </c>
     </row>
     <row r="40">
@@ -1859,7 +1857,7 @@
         <v>6.743387745758985</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>25.28716579620325</v>
+        <v>25.28716579620324</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>6.843321541648005</v>
@@ -1879,31 +1877,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.967264597160455</v>
+        <v>-4.147117144507848</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.365378956143296</v>
+        <v>-6.313544962639906</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.399967694049189</v>
+        <v>3.291516580523117</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5.505421120761028</v>
+        <v>5.149382063458627</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.800777443106951</v>
+        <v>2.426362205742206</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>20.96802353199213</v>
+        <v>20.82529775878061</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.865390591863664</v>
+        <v>2.874168107722992</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.1294857842551109</v>
+        <v>-0.2399876801251428</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>15.39389389408336</v>
+        <v>15.1481980760556</v>
       </c>
     </row>
     <row r="42">
@@ -1914,31 +1912,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.624913449525692</v>
+        <v>7.775651912138937</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.774726430460279</v>
+        <v>3.702926548354964</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.51999712252941</v>
+        <v>14.0047256149836</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.28154550201767</v>
+        <v>15.70419673541541</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>11.33445576903516</v>
+        <v>11.44633989203851</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>29.76909358519188</v>
+        <v>29.49904041353297</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.06402634561666</v>
+        <v>10.57233710167133</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.258999251439084</v>
+        <v>7.087511577857219</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>22.29413931504539</v>
+        <v>22.14872356089816</v>
       </c>
     </row>
     <row r="43">
@@ -1964,7 +1962,7 @@
         <v>0.9252106928570348</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>3.469466248831676</v>
+        <v>3.469466248831675</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.83117198542821</v>
@@ -1984,31 +1982,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4080410349064817</v>
+        <v>-0.3464829031813017</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5021242379347747</v>
+        <v>-0.4867653391755352</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2395366136940625</v>
+        <v>0.2431872359832297</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5107933954555367</v>
+        <v>0.4541916880654869</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1614916697790808</v>
+        <v>0.1874949280354996</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.975230735620039</v>
+        <v>2.03058203544913</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2636133401969671</v>
+        <v>0.2817096436236383</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.007038602414888752</v>
+        <v>-0.02725087854339837</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.392840463240162</v>
+        <v>1.426921041008689</v>
       </c>
     </row>
     <row r="45">
@@ -2019,31 +2017,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.892209514319559</v>
+        <v>1.18525149898652</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6136597886730046</v>
+        <v>0.6032656801284167</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.00604877813021</v>
+        <v>2.045440493269384</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3.016889521503514</v>
+        <v>2.838042426327118</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.137171746874251</v>
+        <v>2.097274984544833</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>6.271623009909416</v>
+        <v>6.080563183957891</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.78645913131531</v>
+        <v>1.677486300477439</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.112751134817283</v>
+        <v>1.098469436501465</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.67770532866211</v>
+        <v>3.61050354226543</v>
       </c>
     </row>
     <row r="46">
@@ -2093,31 +2091,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.3247920559103825</v>
+        <v>-0.3607309055458598</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.3511519863544697</v>
+        <v>-0.3653622642057306</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.55425772873696</v>
+        <v>2.518289280169293</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.466912121440987</v>
+        <v>1.459200034986759</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.8566201765431292</v>
+        <v>0.8528036192990118</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>5.987755070372427</v>
+        <v>6.077839113303648</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.8025726423125591</v>
+        <v>0.8425098567530492</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.4588015521352943</v>
+        <v>0.4696190885798487</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>4.605174341118381</v>
+        <v>4.550766292993878</v>
       </c>
     </row>
     <row r="48">
@@ -2128,31 +2126,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.00105747219287</v>
+        <v>1.001376065276354</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.8626812753393318</v>
+        <v>0.7824932825552868</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.076679820444744</v>
+        <v>4.066869977111481</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.401213658986039</v>
+        <v>3.280731594012795</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.749570672120087</v>
+        <v>2.63666876064084</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.867060750233867</v>
+        <v>7.905841208471766</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.981123663556858</v>
+        <v>2.010328864451721</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.585729115920067</v>
+        <v>1.544970354700298</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.817705673985167</v>
+        <v>5.761386586771417</v>
       </c>
     </row>
     <row r="49">
@@ -2187,7 +2185,7 @@
         <v>0.4843948548667521</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>2.544408945555688</v>
+        <v>2.544408945555687</v>
       </c>
     </row>
     <row r="50">
@@ -2198,31 +2196,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1886533749727539</v>
+        <v>-0.2233138872011766</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2111859215445643</v>
+        <v>-0.2038567369436127</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.350103393427569</v>
+        <v>1.400075277998869</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.4716942744451898</v>
+        <v>0.4758782312052439</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2947549361109055</v>
+        <v>0.2803899751589326</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.983428566288909</v>
+        <v>1.95001294910735</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3414942000694397</v>
+        <v>0.3627811574794588</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2025451731525881</v>
+        <v>0.2028226318061019</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.948317630385555</v>
+        <v>1.918738342448877</v>
       </c>
     </row>
     <row r="51">
@@ -2233,31 +2231,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8853076590384376</v>
+        <v>0.874293522994008</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.800220783375961</v>
+        <v>0.638179979898028</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>3.510902814030147</v>
+        <v>3.46332544361788</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.511312110532465</v>
+        <v>1.477966000122701</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.227982614303372</v>
+        <v>1.211731369932485</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>3.730119467550801</v>
+        <v>3.640213703595498</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.083688204163391</v>
+        <v>1.137691357758387</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.8915281493659791</v>
+        <v>0.8978425349030102</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>3.263760143908893</v>
+        <v>3.287969897844354</v>
       </c>
     </row>
     <row r="52">
